--- a/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_detencion_no_inmediata.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tipo/hyp_detenciones_detencion_no_inmediata.xlsx
@@ -5966,9 +5966,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEF0362B-F236-42CE-BB3B-811F6C3F6FCD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{314E06A3-451F-41A1-93EF-87130B3DC9E8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0F99553-C1F2-4875-8F8A-FC0D6DBEF621}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39BF1640-6C8F-4ADC-8FFB-A3DC6BE76F77}"/>
 </file>